--- a/Code/Results/Cases/Case_4_130/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_130/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.249402345051863</v>
+        <v>10.39308048971247</v>
       </c>
       <c r="C2">
-        <v>1.551552485153024</v>
+        <v>1.136595343967713</v>
       </c>
       <c r="D2">
-        <v>0.1603460997677075</v>
+        <v>0.3536226947226737</v>
       </c>
       <c r="E2">
-        <v>0.01886278137224751</v>
+        <v>0.0603028782126156</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008575431066425351</v>
+        <v>0.002839844136963583</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03628387536678801</v>
+        <v>0.01197721935397666</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.7190577003220398</v>
+        <v>1.067017216859824</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4.782264725414791</v>
+        <v>5.579649641933827</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.229910176618603</v>
+        <v>10.23773518118469</v>
       </c>
       <c r="C3">
-        <v>1.348648000376102</v>
+        <v>1.098116843142236</v>
       </c>
       <c r="D3">
-        <v>0.1521136162690624</v>
+        <v>0.3541105254511194</v>
       </c>
       <c r="E3">
-        <v>0.01909765288499776</v>
+        <v>0.06054229011999057</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008757692738389552</v>
+        <v>0.002850014970951058</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03100964967968167</v>
+        <v>0.01058190605779785</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6533228333227896</v>
+        <v>1.060063811316994</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>4.553308744285118</v>
+        <v>5.503839327972116</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.632887990039364</v>
+        <v>10.14878681318976</v>
       </c>
       <c r="C4">
-        <v>1.229334668815284</v>
+        <v>1.075311716231113</v>
       </c>
       <c r="D4">
-        <v>0.1474326097332224</v>
+        <v>0.3545600276020551</v>
       </c>
       <c r="E4">
-        <v>0.0192527615909821</v>
+        <v>0.06069879629198116</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008870971608309646</v>
+        <v>0.002856573902382792</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02787865665687406</v>
+        <v>0.009723168371536417</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6150963888434973</v>
+        <v>1.056379122938196</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4.418375182445004</v>
+        <v>5.457747416782723</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.395842638833869</v>
+        <v>10.11414544053622</v>
       </c>
       <c r="C5">
-        <v>1.181833158804352</v>
+        <v>1.066222115553103</v>
       </c>
       <c r="D5">
-        <v>0.1456089499568662</v>
+        <v>0.3547808531180365</v>
       </c>
       <c r="E5">
-        <v>0.01931865769723196</v>
+        <v>0.06076497107311796</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000891756931356833</v>
+        <v>0.002859326031540391</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02662464838851974</v>
+        <v>0.009372638280421342</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5999846976920935</v>
+        <v>1.05502387031008</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4.364610264604124</v>
+        <v>5.439075710640537</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.356831329950865</v>
+        <v>10.10848990529058</v>
       </c>
       <c r="C6">
-        <v>1.174007755170521</v>
+        <v>1.064725017030355</v>
       </c>
       <c r="D6">
-        <v>0.1453109318148122</v>
+        <v>0.3548197932441894</v>
       </c>
       <c r="E6">
-        <v>0.01932976076285087</v>
+        <v>0.06077610433388658</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008925335562207033</v>
+        <v>0.002859787820979487</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02641760893375178</v>
+        <v>0.009314395164384592</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5975016740874821</v>
+        <v>1.054807645672909</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>4.355751154338549</v>
+        <v>5.435981897352491</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.6296670788293</v>
+        <v>10.14831314143049</v>
       </c>
       <c r="C7">
-        <v>1.228689763035277</v>
+        <v>1.075188309590544</v>
       </c>
       <c r="D7">
-        <v>0.1474076878307642</v>
+        <v>0.3545628533676819</v>
       </c>
       <c r="E7">
-        <v>0.01925363946449377</v>
+        <v>0.06069967903268503</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.000887159816552643</v>
+        <v>0.002856610697125309</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02786166219438257</v>
+        <v>0.00971844348689288</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6148907870687594</v>
+        <v>1.056360254180404</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>4.417645385335788</v>
+        <v>5.457495158323439</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.891198843861162</v>
+        <v>10.33817451561993</v>
       </c>
       <c r="C8">
-        <v>1.480362761665731</v>
+        <v>1.123155918754492</v>
       </c>
       <c r="D8">
-        <v>0.1574233826923148</v>
+        <v>0.3537597329791566</v>
       </c>
       <c r="E8">
-        <v>0.01894146784543138</v>
+        <v>0.06038345849589133</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008638050067731131</v>
+        <v>0.002843286084112919</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03443969120574053</v>
+        <v>0.01149648224885524</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6959029078629158</v>
+        <v>1.064497860202209</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>4.702019991768537</v>
+        <v>5.553413461358446</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.65176752922901</v>
+        <v>10.76213857263656</v>
       </c>
       <c r="C9">
-        <v>2.027091752941715</v>
+        <v>1.223864797167494</v>
       </c>
       <c r="D9">
-        <v>0.1805856188454129</v>
+        <v>0.3533780581642958</v>
       </c>
       <c r="E9">
-        <v>0.01841900978819644</v>
+        <v>0.05983847455871105</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008185917598540152</v>
+        <v>0.002819631766737951</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04847491522085079</v>
+        <v>0.01497116208608418</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.8756232307247842</v>
+        <v>1.085132117536745</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>5.315319589872843</v>
+        <v>5.745296300435143</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.95666319830605</v>
+        <v>11.10599900431373</v>
       </c>
       <c r="C10">
-        <v>2.481622192153452</v>
+        <v>1.302101103475763</v>
       </c>
       <c r="D10">
-        <v>0.2007403770828802</v>
+        <v>0.3538303353701622</v>
       </c>
       <c r="E10">
-        <v>0.01809651337384444</v>
+        <v>0.05948345477559425</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007848381335204958</v>
+        <v>0.002803739056511035</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05999009533756805</v>
+        <v>0.01752234200407798</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.027381285794576</v>
+        <v>1.103198673247817</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5.81903284568989</v>
+        <v>5.888832294938425</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.09749741486655</v>
+        <v>11.26966241866023</v>
       </c>
       <c r="C11">
-        <v>2.706357299969852</v>
+        <v>1.338658752368815</v>
       </c>
       <c r="D11">
-        <v>0.2109020493662825</v>
+        <v>0.3541964474551804</v>
       </c>
       <c r="E11">
-        <v>0.01796558857446673</v>
+        <v>0.0593317131272082</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007690857382486133</v>
+        <v>0.002796826812228787</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06565327131585974</v>
+        <v>0.01868384713925053</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.102914494857117</v>
+        <v>1.112061542791309</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>6.065714710844702</v>
+        <v>5.954742322294692</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.54656079228084</v>
+        <v>11.33269481927823</v>
       </c>
       <c r="C12">
-        <v>2.794807287275432</v>
+        <v>1.352644858252006</v>
       </c>
       <c r="D12">
-        <v>0.2149292684999295</v>
+        <v>0.3543582488734671</v>
       </c>
       <c r="E12">
-        <v>0.0179186059806602</v>
+        <v>0.05927564904904425</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007630306187427876</v>
+        <v>0.002794254584437628</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0678782434028804</v>
+        <v>0.01912391884027187</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.13271143281014</v>
+        <v>1.115511363869928</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>6.162346978903827</v>
+        <v>5.979793504992415</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.44901475749759</v>
+        <v>11.31907241706892</v>
       </c>
       <c r="C13">
-        <v>2.775594167595727</v>
+        <v>1.349626306659786</v>
       </c>
       <c r="D13">
-        <v>0.2140532558774169</v>
+        <v>0.3543223701929605</v>
       </c>
       <c r="E13">
-        <v>0.01792860232658855</v>
+        <v>0.05928766140721065</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007643393416834051</v>
+        <v>0.002794806551186841</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06739509809544586</v>
+        <v>0.01902912951231883</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.126235949831255</v>
+        <v>1.114764202071143</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>6.141378777393129</v>
+        <v>5.974394105332237</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.13407425699722</v>
+        <v>11.2748268649616</v>
       </c>
       <c r="C14">
-        <v>2.713561754997897</v>
+        <v>1.339806521708795</v>
       </c>
       <c r="D14">
-        <v>0.2112295287122805</v>
+        <v>0.3542092941356856</v>
       </c>
       <c r="E14">
-        <v>0.01796166888837014</v>
+        <v>0.05932707273451854</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007685896108074415</v>
+        <v>0.002796614287868344</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06583457447877095</v>
+        <v>0.01872004683197304</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.105340180785618</v>
+        <v>1.112343479038628</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>6.073595396153394</v>
+        <v>5.95680142096063</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.94351809056502</v>
+        <v>11.24786326056801</v>
       </c>
       <c r="C15">
-        <v>2.6760280345041</v>
+        <v>1.333810282031948</v>
       </c>
       <c r="D15">
-        <v>0.2095245321092989</v>
+        <v>0.3541430513765818</v>
       </c>
       <c r="E15">
-        <v>0.01798227322576906</v>
+        <v>0.05935139508665044</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007711801431803352</v>
+        <v>0.002797727466241256</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06488987032467719</v>
+        <v>0.01853075827126105</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.092705580363884</v>
+        <v>1.110872941743935</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>6.032519802303909</v>
+        <v>5.946037560677553</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.8842614004476</v>
+        <v>11.09545021379517</v>
       </c>
       <c r="C16">
-        <v>2.467356679030388</v>
+        <v>1.299731731915927</v>
       </c>
       <c r="D16">
-        <v>0.2000991336674929</v>
+        <v>0.3538096446957297</v>
       </c>
       <c r="E16">
-        <v>0.01810541210638039</v>
+        <v>0.05949356729553212</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007858570085493455</v>
+        <v>0.002804197145075901</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05963005845242719</v>
+        <v>0.01744646246199011</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.022596156661791</v>
+        <v>1.102632513104766</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>5.803319381613846</v>
+        <v>5.884537637604581</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.26042720474845</v>
+        <v>11.00381489614574</v>
       </c>
       <c r="C17">
-        <v>2.344417454997028</v>
+        <v>1.27907583696242</v>
       </c>
       <c r="D17">
-        <v>0.1945939062133561</v>
+        <v>0.353646255524751</v>
       </c>
       <c r="E17">
-        <v>0.01818518884164222</v>
+        <v>0.05958328040403371</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007947385925046581</v>
+        <v>0.002808247131637577</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05652408485681804</v>
+        <v>0.01678159627012832</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.9814113240180689</v>
+        <v>1.097742994767827</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5.667637689869537</v>
+        <v>5.846969765145388</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.91002278999656</v>
+        <v>10.95178914628343</v>
       </c>
       <c r="C18">
-        <v>2.275340129009521</v>
+        <v>1.267285975569564</v>
       </c>
       <c r="D18">
-        <v>0.1915182195033083</v>
+        <v>0.353567366646601</v>
       </c>
       <c r="E18">
-        <v>0.01823253408829872</v>
+        <v>0.0596357998990702</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007998120573809069</v>
+        <v>0.002810606475985965</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05477615174662276</v>
+        <v>0.01639926730999264</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.9583151258887312</v>
+        <v>1.094991256282356</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>5.591196393141104</v>
+        <v>5.825419335997452</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.79272916450509</v>
+        <v>10.93429052483725</v>
       </c>
       <c r="C19">
-        <v>2.252212836116144</v>
+        <v>1.263309635429891</v>
       </c>
       <c r="D19">
-        <v>0.19049149981619</v>
+        <v>0.3535432446364837</v>
       </c>
       <c r="E19">
-        <v>0.01824880718403321</v>
+        <v>0.05965374010442304</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008015246790760423</v>
+        <v>0.002811410455563267</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05419045723220961</v>
+        <v>0.01626982889391826</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.9505902042531886</v>
+        <v>1.094069940405092</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5.565571403381853</v>
+        <v>5.818132503764303</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.32594149122247</v>
+        <v>11.01349909583132</v>
       </c>
       <c r="C20">
-        <v>2.357330646060745</v>
+        <v>1.281265264067486</v>
       </c>
       <c r="D20">
-        <v>0.1951703236588429</v>
+        <v>0.3536620862853255</v>
       </c>
       <c r="E20">
-        <v>0.01817654343971098</v>
+        <v>0.05957363523348747</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007937969596214017</v>
+        <v>0.00280781291170454</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05685061143818615</v>
+        <v>0.01685236297337411</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.9857325981747067</v>
+        <v>1.098257215128598</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5.681911340159161</v>
+        <v>5.850962936822611</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.22608076953327</v>
+        <v>11.28779405313969</v>
       </c>
       <c r="C21">
-        <v>2.731683965540242</v>
+        <v>1.34268693523552</v>
       </c>
       <c r="D21">
-        <v>0.2120537131019375</v>
+        <v>0.3542418778452969</v>
       </c>
       <c r="E21">
-        <v>0.01795188268104342</v>
+        <v>0.05931545880114353</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.00076734396258119</v>
+        <v>0.002796082085592112</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06629056778506737</v>
+        <v>0.01881082474945117</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.111442869418056</v>
+        <v>1.113051954471132</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>6.093410980424608</v>
+        <v>5.961966275833333</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.57010406681559</v>
+        <v>11.47322804033445</v>
       </c>
       <c r="C22">
-        <v>2.996420891946684</v>
+        <v>1.383661892515534</v>
       </c>
       <c r="D22">
-        <v>0.2241590966545317</v>
+        <v>0.3547558665429449</v>
       </c>
       <c r="E22">
-        <v>0.01782045339964622</v>
+        <v>0.05915486670531678</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007495065959791631</v>
+        <v>0.002788679125930435</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07294339429710561</v>
+        <v>0.02009220859660843</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.200752547411753</v>
+        <v>1.123267493141526</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>6.381619654540827</v>
+        <v>6.035054406128211</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.84182226638882</v>
+        <v>11.37368892595316</v>
       </c>
       <c r="C23">
-        <v>2.852963839903964</v>
+        <v>1.361715482858017</v>
       </c>
       <c r="D23">
-        <v>0.217584830308482</v>
+        <v>0.3544691478342088</v>
       </c>
       <c r="E23">
-        <v>0.01788904182289341</v>
+        <v>0.05923983480701978</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007590908750851751</v>
+        <v>0.002792606204048895</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06934016981307423</v>
+        <v>0.01940814778093625</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.152321793974153</v>
+        <v>1.117764941166087</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>6.22574003109014</v>
+        <v>5.995995020959242</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.29629706442449</v>
+        <v>11.00911882511662</v>
       </c>
       <c r="C24">
-        <v>2.35148765625263</v>
+        <v>1.280275158052063</v>
       </c>
       <c r="D24">
-        <v>0.194909449627886</v>
+        <v>0.3536548823418855</v>
       </c>
       <c r="E24">
-        <v>0.01818044743694003</v>
+        <v>0.0595779928797695</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007942227713402061</v>
+        <v>0.002808009126195056</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05670287260773677</v>
+        <v>0.0168203696298761</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.9837771572195777</v>
+        <v>1.098024551438471</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>5.675453400978711</v>
+        <v>5.8491574752004</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.86518301543617</v>
+        <v>10.64182571632227</v>
       </c>
       <c r="C25">
-        <v>1.871676037905729</v>
+        <v>1.195889215191585</v>
       </c>
       <c r="D25">
-        <v>0.1738541672670095</v>
+        <v>0.353353041077284</v>
       </c>
       <c r="E25">
-        <v>0.01855019430968929</v>
+        <v>0.05997790807980241</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008308401680450157</v>
+        <v>0.002825768253982706</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04451109275060006</v>
+        <v>0.01403187944446671</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8241473541604591</v>
+        <v>1.079043720960527</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>5.141728559449632</v>
+        <v>5.692955776132919</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_130/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_130/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.39308048971247</v>
+        <v>9.249402345051749</v>
       </c>
       <c r="C2">
-        <v>1.136595343967713</v>
+        <v>1.551552485153536</v>
       </c>
       <c r="D2">
-        <v>0.3536226947226737</v>
+        <v>0.1603460997676649</v>
       </c>
       <c r="E2">
-        <v>0.0603028782126156</v>
+        <v>0.01886278137218023</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002839844136963583</v>
+        <v>0.0008575431065262464</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01197721935397666</v>
+        <v>0.03628387536670985</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.067017216859824</v>
+        <v>0.7190577003218976</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>5.579649641933827</v>
+        <v>4.782264725414791</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.23773518118469</v>
+        <v>8.229910176618262</v>
       </c>
       <c r="C3">
-        <v>1.098116843142236</v>
+        <v>1.348648000376897</v>
       </c>
       <c r="D3">
-        <v>0.3541105254511194</v>
+        <v>0.1521136162694035</v>
       </c>
       <c r="E3">
-        <v>0.06054229011999057</v>
+        <v>0.0190976528849125</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002850014970951058</v>
+        <v>0.0008757692738082184</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01058190605779785</v>
+        <v>0.0310096496797243</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.060063811316994</v>
+        <v>0.6533228333228323</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>5.503839327972116</v>
+        <v>4.553308744285175</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.14878681318976</v>
+        <v>7.632887990039478</v>
       </c>
       <c r="C4">
-        <v>1.075311716231113</v>
+        <v>1.229334668815284</v>
       </c>
       <c r="D4">
-        <v>0.3545600276020551</v>
+        <v>0.1474326097325687</v>
       </c>
       <c r="E4">
-        <v>0.06069879629198116</v>
+        <v>0.01925276159095857</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002856573902382792</v>
+        <v>0.0008870971606159413</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.009723168371536417</v>
+        <v>0.02787865665681011</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.056379122938196</v>
+        <v>0.6150963888434546</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>5.457747416782723</v>
+        <v>4.418375182444976</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.11414544053622</v>
+        <v>7.395842638833926</v>
       </c>
       <c r="C5">
-        <v>1.066222115553103</v>
+        <v>1.181833158803897</v>
       </c>
       <c r="D5">
-        <v>0.3547808531180365</v>
+        <v>0.1456089499564186</v>
       </c>
       <c r="E5">
-        <v>0.06076497107311796</v>
+        <v>0.01931865769721552</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002859326031540391</v>
+        <v>0.0008917569312529591</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.009372638280421342</v>
+        <v>0.0266246483885233</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.05502387031008</v>
+        <v>0.5999846976920082</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.439075710640537</v>
+        <v>4.364610264604153</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.10848990529058</v>
+        <v>7.356831329950921</v>
       </c>
       <c r="C6">
-        <v>1.064725017030355</v>
+        <v>1.174007755170123</v>
       </c>
       <c r="D6">
-        <v>0.3548197932441894</v>
+        <v>0.145310931814798</v>
       </c>
       <c r="E6">
-        <v>0.06077610433388658</v>
+        <v>0.01932976076285797</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002859787820979487</v>
+        <v>0.0008925335563146433</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.009314395164384592</v>
+        <v>0.02641760893372336</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.054807645672909</v>
+        <v>0.5975016740873969</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.435981897352491</v>
+        <v>4.35575115433852</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.14831314143049</v>
+        <v>7.629667078829129</v>
       </c>
       <c r="C7">
-        <v>1.075188309590544</v>
+        <v>1.228689763035561</v>
       </c>
       <c r="D7">
-        <v>0.3545628533676819</v>
+        <v>0.1474076878307642</v>
       </c>
       <c r="E7">
-        <v>0.06069967903268503</v>
+        <v>0.01925363946455061</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002856610697125309</v>
+        <v>0.0008871598164314066</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.00971844348689288</v>
+        <v>0.02786166219426178</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.056360254180404</v>
+        <v>0.6148907870686315</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>5.457495158323439</v>
+        <v>4.417645385335902</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.33817451561993</v>
+        <v>8.891198843861048</v>
       </c>
       <c r="C8">
-        <v>1.123155918754492</v>
+        <v>1.480362761666129</v>
       </c>
       <c r="D8">
-        <v>0.3537597329791566</v>
+        <v>0.1574233826924001</v>
       </c>
       <c r="E8">
-        <v>0.06038345849589133</v>
+        <v>0.01894146784544759</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002843286084112919</v>
+        <v>0.0008638050067698017</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01149648224885524</v>
+        <v>0.03443969120571566</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.064497860202209</v>
+        <v>0.6959029078627736</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>5.553413461358446</v>
+        <v>4.702019991768537</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.76213857263656</v>
+        <v>11.65176752922901</v>
       </c>
       <c r="C9">
-        <v>1.223864797167494</v>
+        <v>2.027091752942567</v>
       </c>
       <c r="D9">
-        <v>0.3533780581642958</v>
+        <v>0.1805856188454271</v>
       </c>
       <c r="E9">
-        <v>0.05983847455871105</v>
+        <v>0.01841900978820799</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002819631766737951</v>
+        <v>0.0008185917599807802</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01497116208608418</v>
+        <v>0.04847491522094316</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.085132117536745</v>
+        <v>0.8756232307247274</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>5.745296300435143</v>
+        <v>5.315319589872871</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.10599900431373</v>
+        <v>13.95666319830605</v>
       </c>
       <c r="C10">
-        <v>1.302101103475763</v>
+        <v>2.481622192153509</v>
       </c>
       <c r="D10">
-        <v>0.3538303353701622</v>
+        <v>0.2007403770823544</v>
       </c>
       <c r="E10">
-        <v>0.05948345477559425</v>
+        <v>0.01809651337390261</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002803739056511035</v>
+        <v>0.0007848381337580747</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01752234200407798</v>
+        <v>0.05999009533753963</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.103198673247817</v>
+        <v>1.027381285794547</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5.888832294938425</v>
+        <v>5.819032845689833</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.26966241866023</v>
+        <v>15.09749741486644</v>
       </c>
       <c r="C11">
-        <v>1.338658752368815</v>
+        <v>2.706357299970307</v>
       </c>
       <c r="D11">
-        <v>0.3541964474551804</v>
+        <v>0.2109020493660125</v>
       </c>
       <c r="E11">
-        <v>0.0593317131272082</v>
+        <v>0.01796558857447517</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002796826812228787</v>
+        <v>0.000769085738337198</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01868384713925053</v>
+        <v>0.06565327131588106</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.112061542791309</v>
+        <v>1.102914494857032</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>5.954742322294692</v>
+        <v>6.065714710844645</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.33269481927823</v>
+        <v>15.54656079228073</v>
       </c>
       <c r="C12">
-        <v>1.352644858252006</v>
+        <v>2.794807287275376</v>
       </c>
       <c r="D12">
-        <v>0.3543582488734671</v>
+        <v>0.2149292684999438</v>
       </c>
       <c r="E12">
-        <v>0.05927564904904425</v>
+        <v>0.01791860598079342</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002794254584437628</v>
+        <v>0.0007630306187493098</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.01912391884027187</v>
+        <v>0.06787824340259618</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.115511363869928</v>
+        <v>1.132711432810254</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>5.979793504992415</v>
+        <v>6.162346978903884</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.31907241706892</v>
+        <v>15.44901475749759</v>
       </c>
       <c r="C13">
-        <v>1.349626306659786</v>
+        <v>2.775594167595671</v>
       </c>
       <c r="D13">
-        <v>0.3543223701929605</v>
+        <v>0.2140532558778574</v>
       </c>
       <c r="E13">
-        <v>0.05928766140721065</v>
+        <v>0.01792860232659921</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002794806551186841</v>
+        <v>0.0007643393417902939</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01902912951231883</v>
+        <v>0.06739509809558086</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.114764202071143</v>
+        <v>1.126235949831596</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>5.974394105332237</v>
+        <v>6.141378777393129</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.2748268649616</v>
+        <v>15.13407425699688</v>
       </c>
       <c r="C14">
-        <v>1.339806521708795</v>
+        <v>2.713561754997329</v>
       </c>
       <c r="D14">
-        <v>0.3542092941356856</v>
+        <v>0.211229528712721</v>
       </c>
       <c r="E14">
-        <v>0.05932707273451854</v>
+        <v>0.01796166888849582</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002796614287868344</v>
+        <v>0.0007685896110700973</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01872004683197304</v>
+        <v>0.06583457447882779</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.112343479038628</v>
+        <v>1.105340180785703</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>5.95680142096063</v>
+        <v>6.073595396153451</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.24786326056801</v>
+        <v>14.94351809056491</v>
       </c>
       <c r="C15">
-        <v>1.333810282031948</v>
+        <v>2.6760280345041</v>
       </c>
       <c r="D15">
-        <v>0.3541430513765818</v>
+        <v>0.2095245321096115</v>
       </c>
       <c r="E15">
-        <v>0.05935139508665044</v>
+        <v>0.01798227322584989</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002797727466241256</v>
+        <v>0.0007711801431865347</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.01853075827126105</v>
+        <v>0.06488987032462035</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.110872941743935</v>
+        <v>1.092705580363997</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>5.946037560677553</v>
+        <v>6.032519802303909</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.09545021379517</v>
+        <v>13.88426140044805</v>
       </c>
       <c r="C16">
-        <v>1.299731731915927</v>
+        <v>2.4673566790309</v>
       </c>
       <c r="D16">
-        <v>0.3538096446957297</v>
+        <v>0.2000991336668108</v>
       </c>
       <c r="E16">
-        <v>0.05949356729553212</v>
+        <v>0.01810541210638505</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002804197145075901</v>
+        <v>0.0007858570085520225</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01744646246199011</v>
+        <v>0.05963005845234193</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.102632513104766</v>
+        <v>1.022596156661649</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>5.884537637604581</v>
+        <v>5.803319381613846</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.00381489614574</v>
+        <v>13.26042720474857</v>
       </c>
       <c r="C17">
-        <v>1.27907583696242</v>
+        <v>2.344417454996972</v>
       </c>
       <c r="D17">
-        <v>0.353646255524751</v>
+        <v>0.1945939062130577</v>
       </c>
       <c r="E17">
-        <v>0.05958328040403371</v>
+        <v>0.01818518884163423</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002808247131637577</v>
+        <v>0.0007947385923879171</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01678159627012832</v>
+        <v>0.05652408485678961</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.097742994767827</v>
+        <v>0.9814113240180689</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5.846969765145388</v>
+        <v>5.66763768986948</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.95178914628343</v>
+        <v>12.91002278999645</v>
       </c>
       <c r="C18">
-        <v>1.267285975569564</v>
+        <v>2.275340129009521</v>
       </c>
       <c r="D18">
-        <v>0.353567366646601</v>
+        <v>0.1915182195029104</v>
       </c>
       <c r="E18">
-        <v>0.0596357998990702</v>
+        <v>0.01823253408828163</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002810606475985965</v>
+        <v>0.0007998120575246575</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.01639926730999264</v>
+        <v>0.05477615174647354</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.094991256282356</v>
+        <v>0.9583151258887028</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>5.825419335997452</v>
+        <v>5.591196393141018</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.93429052483725</v>
+        <v>12.7927291645052</v>
       </c>
       <c r="C19">
-        <v>1.263309635429891</v>
+        <v>2.252212836116257</v>
       </c>
       <c r="D19">
-        <v>0.3535432446364837</v>
+        <v>0.1904914998158205</v>
       </c>
       <c r="E19">
-        <v>0.05965374010442304</v>
+        <v>0.01824880718401634</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002811410455563267</v>
+        <v>0.0008015246790969343</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01626982889391826</v>
+        <v>0.05419045723221672</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.094069940405092</v>
+        <v>0.9505902042530465</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5.818132503764303</v>
+        <v>5.565571403381966</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.01349909583132</v>
+        <v>13.32594149122269</v>
       </c>
       <c r="C20">
-        <v>1.281265264067486</v>
+        <v>2.357330646060689</v>
       </c>
       <c r="D20">
-        <v>0.3536620862853255</v>
+        <v>0.1951703236590276</v>
       </c>
       <c r="E20">
-        <v>0.05957363523348747</v>
+        <v>0.01817654343976183</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.00280781291170454</v>
+        <v>0.0007937969596192417</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.01685236297337411</v>
+        <v>0.05685061143815062</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.098257215128598</v>
+        <v>0.9857325981746499</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5.850962936822611</v>
+        <v>5.681911340159161</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.28779405313969</v>
+        <v>15.22608076953281</v>
       </c>
       <c r="C21">
-        <v>1.34268693523552</v>
+        <v>2.731683965539617</v>
       </c>
       <c r="D21">
-        <v>0.3542418778452969</v>
+        <v>0.2120537131019091</v>
       </c>
       <c r="E21">
-        <v>0.05931545880114353</v>
+        <v>0.01795188268111048</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002796082085592112</v>
+        <v>0.0007673439627155769</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01881082474945117</v>
+        <v>0.06629056778495368</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.113051954471132</v>
+        <v>1.111442869418084</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>5.961966275833333</v>
+        <v>6.093410980424608</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.47322804033445</v>
+        <v>16.57010406681582</v>
       </c>
       <c r="C22">
-        <v>1.383661892515534</v>
+        <v>2.996420891946059</v>
       </c>
       <c r="D22">
-        <v>0.3547558665429449</v>
+        <v>0.2241590966551712</v>
       </c>
       <c r="E22">
-        <v>0.05915486670531678</v>
+        <v>0.01782045339972305</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002788679125930435</v>
+        <v>0.0007495065959586918</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02009220859660843</v>
+        <v>0.07294339429699903</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.123267493141526</v>
+        <v>1.200752547411781</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>6.035054406128211</v>
+        <v>6.381619654540657</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.37368892595316</v>
+        <v>15.84182226638893</v>
       </c>
       <c r="C23">
-        <v>1.361715482858017</v>
+        <v>2.852963839903509</v>
       </c>
       <c r="D23">
-        <v>0.3544691478342088</v>
+        <v>0.2175848303084535</v>
       </c>
       <c r="E23">
-        <v>0.05923983480701978</v>
+        <v>0.01788904182281481</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002792606204048895</v>
+        <v>0.0007590908749992531</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.01940814778093625</v>
+        <v>0.06934016981301028</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.117764941166087</v>
+        <v>1.152321793974323</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>5.995995020959242</v>
+        <v>6.22574003109014</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.00911882511662</v>
+        <v>13.29629706442415</v>
       </c>
       <c r="C24">
-        <v>1.280275158052063</v>
+        <v>2.35148765625263</v>
       </c>
       <c r="D24">
-        <v>0.3536548823418855</v>
+        <v>0.1949094496276444</v>
       </c>
       <c r="E24">
-        <v>0.0595779928797695</v>
+        <v>0.01818044743692471</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002808009126195056</v>
+        <v>0.0007942227712064113</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0168203696298761</v>
+        <v>0.05670287260785045</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.098024551438471</v>
+        <v>0.9837771572196914</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>5.8491574752004</v>
+        <v>5.675453400978711</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.64182571632227</v>
+        <v>10.86518301543629</v>
       </c>
       <c r="C25">
-        <v>1.195889215191585</v>
+        <v>1.871676037905104</v>
       </c>
       <c r="D25">
-        <v>0.353353041077284</v>
+        <v>0.1738541672667253</v>
       </c>
       <c r="E25">
-        <v>0.05997790807980241</v>
+        <v>0.01855019430973526</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002825768253982706</v>
+        <v>0.0008308401680391713</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.01403187944446671</v>
+        <v>0.04451109275053255</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.079043720960527</v>
+        <v>0.8241473541604307</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>5.692955776132919</v>
+        <v>5.14172855944966</v>
       </c>
       <c r="O25">
         <v>0</v>
